--- a/mosip_master/xlsx/template.xlsx
+++ b/mosip_master/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-sln\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911CE996-A754-4E7D-B0FF-320A5113EAAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6416CF15-B1B3-4A6A-945E-00FCCA3EE39C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="409">
   <si>
     <t>id</t>
   </si>
@@ -1755,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q467"/>
+  <dimension ref="A1:M467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1774,7 +1774,7 @@
     <col min="9" max="10" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1101</v>
       </c>
@@ -1855,11 +1855,8 @@
       <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1102</v>
       </c>
@@ -1900,7 +1897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1103</v>
       </c>
@@ -1941,7 +1938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>118</v>
       </c>
@@ -1982,7 +1979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1148</v>
       </c>
@@ -2023,7 +2020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>1149</v>
       </c>
@@ -2064,7 +2061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>1150</v>
       </c>
@@ -2105,7 +2102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>1151</v>
       </c>
@@ -2146,7 +2143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>1152</v>
       </c>
@@ -2187,7 +2184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>1153</v>
       </c>
@@ -2228,7 +2225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="207.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>1124</v>
       </c>
@@ -2269,7 +2266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>1125</v>
       </c>
@@ -2310,7 +2307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>1126</v>
       </c>
@@ -2351,7 +2348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>1127</v>
       </c>
@@ -2392,7 +2389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>1128</v>
       </c>
